--- a/Project1/students-result.xlsx
+++ b/Project1/students-result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\Python_Handson\Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83C321-A9E3-4E90-A60A-572F629D2B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>S No.</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Total Percentage</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +392,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>86</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project1/students-result.xlsx
+++ b/Project1/students-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\Python_Handson\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83C321-A9E3-4E90-A60A-572F629D2B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1D702-E399-489C-9B5D-6B7E44512F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -622,11 +622,6 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J14">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
